--- a/hydropower_list_seasonal.xlsx
+++ b/hydropower_list_seasonal.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>capacity</t>
+          <t>Total capacity (MW)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2090,7 +2090,7 @@
         <v>66</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I38" t="n">
         <v>263.11</v>
@@ -2134,7 +2134,7 @@
         <v>104</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I39" t="n">
         <v>448.2</v>
@@ -2784,7 +2784,7 @@
         <v>260</v>
       </c>
       <c r="H54" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="I54" t="n">
         <v>2009</v>
@@ -3130,7 +3130,7 @@
         <v>54</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I62" t="n">
         <v>198.2</v>
@@ -3174,7 +3174,7 @@
         <v>160</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I63" t="n">
         <v>633</v>
@@ -3387,7 +3387,7 @@
         <v>102.5477160000035</v>
       </c>
       <c r="G68" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H68" t="n">
         <v>40</v>

--- a/hydropower_list_seasonal.xlsx
+++ b/hydropower_list_seasonal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Fuel Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total capacity (MW)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Domestic Capacity (MW)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Expected Generation (GWh)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total theoretical possible generation (local) GWh</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>COD</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>head</t>
         </is>
@@ -506,36 +511,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngum 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>18.53033599999944</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>102.547645999998</v>
-      </c>
-      <c r="G2" t="n">
-        <v>155</v>
       </c>
       <c r="H2" t="n">
         <v>155</v>
       </c>
       <c r="I2" t="n">
+        <v>155</v>
+      </c>
+      <c r="J2" t="n">
         <v>1025</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1357.8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>45.5</v>
       </c>
     </row>
@@ -550,36 +560,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xeset1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>15.4917520000042</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>106.2787150000018</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45</v>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
         <v>180</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>394.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1991</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -594,36 +609,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Theun Hinboun(extension)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>18.26108799999994</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>104.5624959999974</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>440</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.05</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2691</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.438</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>2013</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>27</v>
       </c>
     </row>
@@ -638,36 +658,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Houay Ho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>15.05960299999729</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>106.7641059999988</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>152</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>450</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>17.52</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>79</v>
       </c>
     </row>
@@ -682,36 +707,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Leuk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>18.43752200000265</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>102.9474080000029</v>
-      </c>
-      <c r="G6" t="n">
-        <v>60</v>
       </c>
       <c r="H6" t="n">
         <v>60</v>
       </c>
       <c r="I6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" t="n">
         <v>215</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>525.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>2000</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>45.5</v>
       </c>
     </row>
@@ -726,36 +756,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Mang 3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>18.34969999999668</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>102.7652610000046</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
       </c>
       <c r="H7" t="n">
         <v>40</v>
       </c>
       <c r="I7" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" t="n">
         <v>150</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>350.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2009</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>17</v>
       </c>
     </row>
@@ -770,36 +805,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xeset 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>15.40376699999984</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>106.2803469999978</v>
-      </c>
-      <c r="G8" t="n">
-        <v>76</v>
       </c>
       <c r="H8" t="n">
         <v>76</v>
       </c>
       <c r="I8" t="n">
+        <v>76</v>
+      </c>
+      <c r="J8" t="n">
         <v>309</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>665.76</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2009</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>12</v>
       </c>
     </row>
@@ -814,36 +854,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Lik 1-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>18.79356699999698</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>102.1163560000006</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
         <v>435</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>876</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2010</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>73</v>
       </c>
     </row>
@@ -858,36 +903,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Theun 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>17.99751399999941</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>104.9525419999981</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1080</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>75.276</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>6000</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>659.4177599999999</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>2010</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>39</v>
       </c>
     </row>
@@ -902,36 +952,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngum 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>18.75119400000291</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>102.775597000003</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>615</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>2300</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2012</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>181</v>
       </c>
     </row>
@@ -946,36 +1001,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngum 5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>19.35681400000074</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>102.6212139999967</v>
-      </c>
-      <c r="G12" t="n">
-        <v>120</v>
       </c>
       <c r="H12" t="n">
         <v>120</v>
       </c>
       <c r="I12" t="n">
+        <v>120</v>
+      </c>
+      <c r="J12" t="n">
         <v>507</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>1051.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>2012</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>104</v>
       </c>
     </row>
@@ -990,36 +1050,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Song Ex</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>18.7985660000029</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>102.4268379999989</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
       <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>52.56</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>2012</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1034,36 +1099,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Nhuang 8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>18.26108779999559</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>104.5624964000036</v>
-      </c>
-      <c r="G14" t="n">
-        <v>60</v>
       </c>
       <c r="H14" t="n">
         <v>60</v>
       </c>
       <c r="I14" t="n">
+        <v>60</v>
+      </c>
+      <c r="J14" t="n">
         <v>316</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>525.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>2013</v>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1076,36 +1146,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t xml:space="preserve">Nam Long           </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>20.93260799999091</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>100.9209169999451</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.5</v>
       </c>
       <c r="H15" t="n">
         <v>5.5</v>
       </c>
       <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
         <v>37</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>48.18</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>2013</v>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1118,36 +1193,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xenamnoy 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>15.13444100000275</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>106.6782230000041</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.8</v>
       </c>
       <c r="H16" t="n">
         <v>14.8</v>
       </c>
       <c r="I16" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J16" t="n">
         <v>101</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>129.648</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>2013</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1162,36 +1242,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xekaman 3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>15.42519999999616</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>107.3611879999998</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>250</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>25</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1000.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>219</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>2014</v>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1204,36 +1289,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngiep 3A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>19.29990599999669</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>103.3522530000032</v>
-      </c>
-      <c r="G18" t="n">
-        <v>44</v>
       </c>
       <c r="H18" t="n">
         <v>44</v>
       </c>
       <c r="I18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="n">
         <v>152.3</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>385.44</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>2014</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1248,36 +1338,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Sana</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>19.21154399999986</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>102.3295860000029</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14</v>
       </c>
       <c r="H19" t="n">
         <v>14</v>
       </c>
       <c r="I19" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" t="n">
         <v>49.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>122.64</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>2014</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1292,36 +1387,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Houay Lamphan Gnai</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>15.35691299999985</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>106.4979860000036</v>
-      </c>
-      <c r="G20" t="n">
-        <v>88</v>
       </c>
       <c r="H20" t="n">
         <v>88</v>
       </c>
       <c r="I20" t="n">
+        <v>88</v>
+      </c>
+      <c r="J20" t="n">
         <v>480</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>770.88</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>2015</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>79</v>
       </c>
     </row>
@@ -1336,36 +1436,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngiep 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>19.24371899999902</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>103.2841850000032</v>
-      </c>
-      <c r="G21" t="n">
-        <v>180</v>
       </c>
       <c r="H21" t="n">
         <v>180</v>
       </c>
       <c r="I21" t="n">
+        <v>180</v>
+      </c>
+      <c r="J21" t="n">
         <v>732</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>1576.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>2015</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>70.5</v>
       </c>
     </row>
@@ -1380,36 +1485,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam San 3B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>19.0848599999966</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>103.6198309999962</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45</v>
       </c>
       <c r="H22" t="n">
         <v>45</v>
       </c>
       <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
         <v>232.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>394.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>2015</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1422,36 +1532,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Khan 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>19.68648400000293</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>102.3641670000007</v>
-      </c>
-      <c r="G23" t="n">
-        <v>130</v>
       </c>
       <c r="H23" t="n">
         <v>130</v>
       </c>
       <c r="I23" t="n">
+        <v>130</v>
+      </c>
+      <c r="J23" t="n">
         <v>538</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>1138.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>2015</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>136</v>
       </c>
     </row>
@@ -1466,36 +1581,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>20.43187499999683</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>102.4943209999968</v>
-      </c>
-      <c r="G24" t="n">
-        <v>120</v>
       </c>
       <c r="H24" t="n">
         <v>120</v>
       </c>
       <c r="I24" t="n">
+        <v>120</v>
+      </c>
+      <c r="J24" t="n">
         <v>546</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>1051.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>2016</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1510,36 +1630,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>21.41139999999927</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>102.3447749999995</v>
-      </c>
-      <c r="G25" t="n">
-        <v>240</v>
       </c>
       <c r="H25" t="n">
         <v>240</v>
       </c>
       <c r="I25" t="n">
+        <v>240</v>
+      </c>
+      <c r="J25" t="n">
         <v>1049</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>2102.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>2016</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>74</v>
       </c>
     </row>
@@ -1554,36 +1679,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>21.77110799999987</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>102.1936029999985</v>
-      </c>
-      <c r="G26" t="n">
-        <v>180</v>
       </c>
       <c r="H26" t="n">
         <v>180</v>
       </c>
       <c r="I26" t="n">
+        <v>180</v>
+      </c>
+      <c r="J26" t="n">
         <v>739</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>1576.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>2016</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1598,36 +1728,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam San 3A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>19.12849199999624</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>103.6624950000009</v>
-      </c>
-      <c r="G27" t="n">
-        <v>69</v>
       </c>
       <c r="H27" t="n">
         <v>69</v>
       </c>
       <c r="I27" t="n">
+        <v>69</v>
+      </c>
+      <c r="J27" t="n">
         <v>173.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>604.4399999999999</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>2016</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1640,36 +1775,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Mang 1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>18.48624400000113</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>103.1889780000015</v>
-      </c>
-      <c r="G28" t="n">
-        <v>64</v>
       </c>
       <c r="H28" t="n">
         <v>64</v>
       </c>
       <c r="I28" t="n">
+        <v>64</v>
+      </c>
+      <c r="J28" t="n">
         <v>224.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>560.64</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>2016</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>86</v>
       </c>
     </row>
@@ -1684,36 +1824,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Khan 3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>19.74686700000291</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>102.2226470000014</v>
-      </c>
-      <c r="G29" t="n">
-        <v>60</v>
       </c>
       <c r="H29" t="n">
         <v>60</v>
       </c>
       <c r="I29" t="n">
+        <v>60</v>
+      </c>
+      <c r="J29" t="n">
         <v>240</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>525.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>2016</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1728,36 +1873,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Beng</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>19.94592199999229</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>101.2407279999825</v>
-      </c>
-      <c r="G30" t="n">
-        <v>36</v>
       </c>
       <c r="H30" t="n">
         <v>36</v>
       </c>
       <c r="I30" t="n">
+        <v>36</v>
+      </c>
+      <c r="J30" t="n">
         <v>145</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>315.36</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>2016</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1770,36 +1920,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xeset 3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>15.34207800000338</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>106.3112859999965</v>
-      </c>
-      <c r="G31" t="n">
-        <v>23</v>
       </c>
       <c r="H31" t="n">
         <v>23</v>
       </c>
       <c r="I31" t="n">
+        <v>23</v>
+      </c>
+      <c r="J31" t="n">
         <v>82</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>201.48</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>2017</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1814,36 +1969,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xe Kaman 1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>14.96148700000187</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>107.1550209999956</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>290</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>32</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>1096</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>2500</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>2017</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1858,36 +2018,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngiep 2C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>19.21268600000088</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>103.3748819999968</v>
-      </c>
-      <c r="G33" t="n">
-        <v>14.55</v>
       </c>
       <c r="H33" t="n">
         <v>14.55</v>
       </c>
       <c r="I33" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="J33" t="n">
         <v>33.07</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>127.458</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>2017</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>356</v>
       </c>
     </row>
@@ -1902,36 +2067,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Peun 2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>20.03750600000422</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>103.983331000004</v>
-      </c>
-      <c r="G34" t="n">
-        <v>12</v>
       </c>
       <c r="H34" t="n">
         <v>12</v>
       </c>
       <c r="I34" t="n">
+        <v>12</v>
+      </c>
+      <c r="J34" t="n">
         <v>68</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>105.12</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>2017</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1944,36 +2114,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Nga 2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>20.18154799999591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>101.9230219999904</v>
-      </c>
-      <c r="G35" t="n">
-        <v>14.5</v>
       </c>
       <c r="H35" t="n">
         <v>14.5</v>
       </c>
       <c r="I35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J35" t="n">
         <v>62.59</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>127.02</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>2017</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1988,36 +2163,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xekatam 1 - Xenamnoy 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>15.1203159999983</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>106.6195819999991</v>
-      </c>
-      <c r="G36" t="n">
-        <v>13.4</v>
       </c>
       <c r="H36" t="n">
         <v>13.4</v>
       </c>
       <c r="I36" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J36" t="n">
         <v>79</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>176.076</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>2017</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2030,36 +2210,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Phay</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>19.11220300000333</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>102.778831000004</v>
-      </c>
-      <c r="G37" t="n">
-        <v>86</v>
       </c>
       <c r="H37" t="n">
         <v>86</v>
       </c>
       <c r="I37" t="n">
+        <v>86</v>
+      </c>
+      <c r="J37" t="n">
         <v>419.5</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>753.36</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>2018</v>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2072,36 +2257,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam kong 2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>14.49470900000195</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>106.8565990000019</v>
-      </c>
-      <c r="G38" t="n">
-        <v>66</v>
       </c>
       <c r="H38" t="n">
         <v>66</v>
       </c>
       <c r="I38" t="n">
+        <v>66</v>
+      </c>
+      <c r="J38" t="n">
         <v>263.11</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>2018</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2116,36 +2306,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Chiane 1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>19.146842999999</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>103.5543659999982</v>
-      </c>
-      <c r="G39" t="n">
-        <v>104</v>
       </c>
       <c r="H39" t="n">
         <v>104</v>
       </c>
       <c r="I39" t="n">
+        <v>104</v>
+      </c>
+      <c r="J39" t="n">
         <v>448.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>547</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>2017</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2160,36 +2355,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xekaman-sanxay</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>14.88880999999869</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>107.1169580000008</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>32</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>131</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>2017</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>122</v>
       </c>
     </row>
@@ -2204,36 +2404,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngum 1 EX phase1 (7&amp;8)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>18.53033599999944</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>102.547645999998</v>
-      </c>
-      <c r="G41" t="n">
-        <v>80</v>
       </c>
       <c r="H41" t="n">
         <v>80</v>
       </c>
       <c r="I41" t="n">
+        <v>80</v>
+      </c>
+      <c r="J41" t="n">
         <v>360</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>700.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>2018</v>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2246,36 +2451,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Houay Poc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>15.57571900000038</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>106.2228229999984</v>
-      </c>
-      <c r="G42" t="n">
-        <v>15</v>
       </c>
       <c r="H42" t="n">
         <v>15</v>
       </c>
       <c r="I42" t="n">
+        <v>15</v>
+      </c>
+      <c r="J42" t="n">
         <v>60</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>131.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>2018</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>64</v>
       </c>
     </row>
@@ -2290,36 +2500,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Houay Chied</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>15.21737600000397</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>106.0939840000029</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8</v>
       </c>
       <c r="H43" t="n">
         <v>8</v>
       </c>
       <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
         <v>38.56</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>70.08</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>2018</v>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2332,36 +2547,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Peun 1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>20.12976699999575</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>103.9415270000025</v>
-      </c>
-      <c r="G44" t="n">
-        <v>25.6</v>
       </c>
       <c r="H44" t="n">
         <v>25.6</v>
       </c>
       <c r="I44" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J44" t="n">
         <v>72.27</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>224.256</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>2019</v>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2374,36 +2594,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Lik1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>18.61925300000395</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>102.3874000000019</v>
-      </c>
-      <c r="G45" t="n">
-        <v>64</v>
       </c>
       <c r="H45" t="n">
         <v>64</v>
       </c>
       <c r="I45" t="n">
+        <v>64</v>
+      </c>
+      <c r="J45" t="n">
         <v>265</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>566.772</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>2019</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>39.5</v>
       </c>
     </row>
@@ -2418,36 +2643,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Tha1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>20.2447709999863</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>100.9009749999621</v>
-      </c>
-      <c r="G46" t="n">
-        <v>168</v>
       </c>
       <c r="H46" t="n">
         <v>168</v>
       </c>
       <c r="I46" t="n">
+        <v>168</v>
+      </c>
+      <c r="J46" t="n">
         <v>759.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>1471.68</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>2019</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>93.59999999999999</v>
       </c>
     </row>
@@ -2462,36 +2692,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngiep 1 Downstream</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>18.64816100000021</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>103.5717260000039</v>
-      </c>
-      <c r="G47" t="n">
-        <v>18</v>
       </c>
       <c r="H47" t="n">
         <v>18</v>
       </c>
       <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
         <v>105</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>157.68</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>2019</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2506,36 +2741,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam PhaNgai + EX</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>19.00923100000012</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>102.8806270000013</v>
-      </c>
-      <c r="G48" t="n">
-        <v>19.2</v>
       </c>
       <c r="H48" t="n">
         <v>19.2</v>
       </c>
       <c r="I48" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J48" t="n">
         <v>104</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>166.44</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>2019</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2550,36 +2790,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Chae 1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>19.08164599999765</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>103.5372989999983</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>15</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>5</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>63.62</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>43.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>2019</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2592,36 +2837,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngiep 2B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>19.18637800000101</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>103.3558020000002</v>
-      </c>
-      <c r="G50" t="n">
-        <v>9.44</v>
       </c>
       <c r="H50" t="n">
         <v>9.44</v>
       </c>
       <c r="I50" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="J50" t="n">
         <v>76</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>82.69439999999999</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>2019</v>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2634,36 +2884,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Karb</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>19.0182250000023</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>102.7305609999957</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12</v>
       </c>
       <c r="H51" t="n">
         <v>12</v>
       </c>
       <c r="I51" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" t="n">
         <v>54.62</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>105.12</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>2019</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>270</v>
       </c>
     </row>
@@ -2678,36 +2933,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngiep 1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>18.64562399999645</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>103.5251759999984</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>272</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>20.264</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>1487</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>2227</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>2019</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>130</v>
       </c>
     </row>
@@ -2722,36 +2982,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Mekong Xayyaburi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>19.24463399999973</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>101.8197649999938</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>1285</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>59.881</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>7370</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>10124</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>2019</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2766,36 +3031,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Donsahong</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>13.94406300000221</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>105.9560210000016</v>
-      </c>
-      <c r="G54" t="n">
-        <v>260</v>
       </c>
       <c r="H54" t="n">
         <v>260</v>
       </c>
       <c r="I54" t="n">
+        <v>260</v>
+      </c>
+      <c r="J54" t="n">
         <v>2009</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>569.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>2019</v>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2808,36 +3078,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xepien-xenamnoy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>15.02680300000021</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>106.6044890000046</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>410</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>39.975</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>2023</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>350.181</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>2019</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>73</v>
       </c>
     </row>
@@ -2852,36 +3127,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xelanong 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>16.35600300000002</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>106.2389350000039</v>
-      </c>
-      <c r="G56" t="n">
-        <v>70</v>
       </c>
       <c r="H56" t="n">
         <v>70</v>
       </c>
       <c r="I56" t="n">
+        <v>70</v>
+      </c>
+      <c r="J56" t="n">
         <v>267</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>613.1999999999999</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>2020</v>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2894,36 +3174,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>20.1487279999984</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>102.3177600000002</v>
-      </c>
-      <c r="G57" t="n">
-        <v>180</v>
       </c>
       <c r="H57" t="n">
         <v>180</v>
       </c>
       <c r="I57" t="n">
+        <v>180</v>
+      </c>
+      <c r="J57" t="n">
         <v>710</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>1576.8</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>2020</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>52.5</v>
       </c>
     </row>
@@ -2938,36 +3223,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>20.8192780000034</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>102.6636180000022</v>
-      </c>
-      <c r="G58" t="n">
-        <v>210</v>
       </c>
       <c r="H58" t="n">
         <v>210</v>
       </c>
       <c r="I58" t="n">
+        <v>210</v>
+      </c>
+      <c r="J58" t="n">
         <v>826</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>1839.6</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>2021</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>59.5</v>
       </c>
     </row>
@@ -2982,36 +3272,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>21.0954870000042</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>102.5014909999979</v>
-      </c>
-      <c r="G59" t="n">
-        <v>132</v>
       </c>
       <c r="H59" t="n">
         <v>132</v>
       </c>
       <c r="I59" t="n">
+        <v>132</v>
+      </c>
+      <c r="J59" t="n">
         <v>519</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>1156.32</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>2021</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>60.25</v>
       </c>
     </row>
@@ -3026,36 +3321,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ou 7</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>22.08252100000106</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>102.2612119999949</v>
-      </c>
-      <c r="G60" t="n">
-        <v>210</v>
       </c>
       <c r="H60" t="n">
         <v>210</v>
       </c>
       <c r="I60" t="n">
+        <v>210</v>
+      </c>
+      <c r="J60" t="n">
         <v>838</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>1839.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>2021</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>143.5</v>
       </c>
     </row>
@@ -3070,36 +3370,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Hinboun Downstream</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>17.72771200000388</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>104.5716529999984</v>
-      </c>
-      <c r="G61" t="n">
-        <v>15</v>
       </c>
       <c r="H61" t="n">
         <v>15</v>
       </c>
       <c r="I61" t="n">
+        <v>15</v>
+      </c>
+      <c r="J61" t="n">
         <v>79</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>131.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>2021</v>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3112,36 +3417,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam kong 3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>14.56493199999941</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>106.920743999998</v>
-      </c>
-      <c r="G62" t="n">
-        <v>54</v>
       </c>
       <c r="H62" t="n">
         <v>54</v>
       </c>
       <c r="I62" t="n">
+        <v>54</v>
+      </c>
+      <c r="J62" t="n">
         <v>198.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>366</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>2021</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3156,36 +3466,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam kong 1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>14.5516980000044</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>106.7330720000013</v>
-      </c>
-      <c r="G63" t="n">
-        <v>160</v>
       </c>
       <c r="H63" t="n">
         <v>160</v>
       </c>
       <c r="I63" t="n">
+        <v>160</v>
+      </c>
+      <c r="J63" t="n">
         <v>633</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>1077</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>2021</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>85.3</v>
       </c>
     </row>
@@ -3200,36 +3515,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Thae</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>19.55735099999604</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>103.5403330000009</v>
-      </c>
-      <c r="G64" t="n">
-        <v>15</v>
       </c>
       <c r="H64" t="n">
         <v>15</v>
       </c>
       <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
         <v>80.66</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>131.4</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>2021</v>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3242,36 +3562,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Huay Lamphan Downstream</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>15.31368799999615</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>106.6544350000027</v>
-      </c>
-      <c r="G65" t="n">
-        <v>15</v>
       </c>
       <c r="H65" t="n">
         <v>15</v>
       </c>
       <c r="I65" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" t="n">
         <v>68.31</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>131.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>2021</v>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3284,36 +3609,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>19.15526600000195</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>103.266205000003</v>
-      </c>
-      <c r="G66" t="n">
-        <v>15</v>
       </c>
       <c r="H66" t="n">
         <v>15</v>
       </c>
       <c r="I66" t="n">
+        <v>15</v>
+      </c>
+      <c r="J66" t="n">
         <v>84.23999999999999</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>131.4</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>2021</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3328,36 +3658,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Thern1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>18.35427899999611</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>104.1470419999997</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>650</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>130</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>2561</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>5664</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>2022</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>140</v>
       </c>
     </row>
@@ -3372,36 +3707,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngum 1 EX phase 2 (6)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>18.53117900000183</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>102.5477160000035</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>120</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>40</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>59</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>350.4</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>2022</v>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3414,32 +3754,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Emoun</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>15.57482999999967</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>106.8664920000023</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>131.5</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>431.37</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
         <v>2023</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3454,36 +3799,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Sim</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>20.34627700000378</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>104.3808039999975</v>
-      </c>
-      <c r="G70" t="n">
-        <v>8</v>
       </c>
       <c r="H70" t="n">
         <v>8</v>
       </c>
       <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
         <v>30</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>70.08</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>2023</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3498,32 +3848,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Houng 1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>19.19136899999999</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>101.8050669999931</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>15</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>87.28</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
         <v>2023</v>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3536,36 +3891,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ko</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>20.79281599999591</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>102.117245999994</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>1.5</v>
       </c>
       <c r="I72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J72" t="n">
         <v>8</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>13.14</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>1996</v>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3578,34 +3938,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xelabam</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>15.35400699999571</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>105.8332610000016</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13.5</v>
       </c>
       <c r="H73" t="n">
         <v>13.5</v>
       </c>
       <c r="I73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J73" t="n">
         <v>57</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
         <v>1970</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3620,36 +3985,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Dong</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>19.82045799999728</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>102.1044189999948</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
       </c>
       <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
         <v>5</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>8.76</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>1970</v>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3662,36 +4032,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Nhon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>20.4271193999747</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>100.3861110998888</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>3</v>
       </c>
       <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
         <v>12</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>26.28</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>2011</v>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3704,36 +4079,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Phao</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>18.37141300000308</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>105.1439190000028</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>1.7</v>
       </c>
       <c r="I76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J76" t="n">
         <v>9</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>14.892</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>2011</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>62.5</v>
       </c>
     </row>
@@ -3748,36 +4128,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Tha 3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>21.03363299999765</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>101.4072439999738</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.25</v>
       </c>
       <c r="H77" t="n">
         <v>1.25</v>
       </c>
       <c r="I77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J77" t="n">
         <v>5.5</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>10.95</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>2011</v>
       </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3790,36 +4175,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Tat Salaen</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>16.66312200000133</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>106.4960919999988</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>3.2</v>
       </c>
       <c r="I78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J78" t="n">
         <v>17</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>28.032</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>2013</v>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3832,36 +4222,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Sen (tadlang)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>19.30345800000424</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>103.1774330000046</v>
-      </c>
-      <c r="G79" t="n">
-        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>5</v>
       </c>
       <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
         <v>25.01</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>43.8</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>2014</v>
       </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3874,36 +4269,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Xanamnoy 6</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>15.0914759999959</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>106.5245199999997</v>
-      </c>
-      <c r="G80" t="n">
-        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>5</v>
       </c>
       <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
         <v>27</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>43.8</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>2016</v>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3916,36 +4316,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam So</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>19.47976999999638</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>103.1588289999986</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
       <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
         <v>12</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>26.28</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>2016</v>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3958,36 +4363,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Phay(ໄພ)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>19.11247000000415</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>102.7450169999993</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>2.5</v>
       </c>
       <c r="I82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J82" t="n">
         <v>10.95</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>21.9</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>2017</v>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4000,36 +4410,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Ngum (kengkhouan)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>19.60790300000426</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>103.2354739999952</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
         <v>4.92</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>8.76</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>2018</v>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4042,36 +4457,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Xor</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>18.61230200000297</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>104.4681660000039</v>
-      </c>
-      <c r="G84" t="n">
-        <v>5</v>
       </c>
       <c r="H84" t="n">
         <v>5</v>
       </c>
       <c r="I84" t="n">
+        <v>5</v>
+      </c>
+      <c r="J84" t="n">
         <v>23.87</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>43.8</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>2019</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4084,36 +4504,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existing  </t>
+          <t>Nam Talan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t xml:space="preserve">Existing  </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>20.84520500000085</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>101.4965179999827</v>
-      </c>
-      <c r="G85" t="n">
-        <v>5</v>
       </c>
       <c r="H85" t="n">
         <v>5</v>
       </c>
       <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
         <v>21.9</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>43.8</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>2021</v>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4126,36 +4551,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Nam Ngum 4</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>Under construction and will be completed in 2024</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
         <v>19.43739100000304</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>103.0014960000007</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>240</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>1040</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>0</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>2024</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4170,36 +4600,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Nam Ngiep 2A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Under construction and will be completed in 2024</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>19.15393700000044</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>103.3449780000027</v>
-      </c>
-      <c r="G87" t="n">
-        <v>10.5</v>
       </c>
       <c r="H87" t="n">
         <v>10.5</v>
       </c>
       <c r="I87" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J87" t="n">
         <v>52.4</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>91.98</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>2024</v>
       </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4212,36 +4647,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>Xeset 2 Extention</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>Under construction and will be completed in 2024</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>15.4037667000021</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>106.2803472000045</v>
-      </c>
-      <c r="G88" t="n">
-        <v>10</v>
       </c>
       <c r="H88" t="n">
         <v>10</v>
       </c>
       <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
         <v>34.38</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>2024</v>
       </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4254,36 +4694,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>Houay Yoi- Houay Kod</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>Under construction and will be completed in 2024</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>15.2387210000023</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>106.1096189999958</v>
-      </c>
-      <c r="G89" t="n">
-        <v>15</v>
       </c>
       <c r="H89" t="n">
         <v>15</v>
       </c>
       <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
         <v>65.7</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>131.4</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>2024</v>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4296,32 +4741,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Xelabam EX</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>Under construction and will be completed in 2024</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>15.35374899999952</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>105.8334249999993</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>8</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>22.64</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
         <v>2024</v>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4334,36 +4784,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>Nam Tha Ban hatmouk</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Under construction and will be completed after 2024</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>20.24263399998752</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>100.7112469999399</v>
-      </c>
-      <c r="G91" t="n">
-        <v>37.5</v>
       </c>
       <c r="H91" t="n">
         <v>37.5</v>
       </c>
       <c r="I91" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J91" t="n">
         <v>171.46</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>328.5</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>2024</v>
       </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4376,36 +4831,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>Nam Hinboun</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Under construction and will be completed after 2024</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>17.89301600000222</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>104.4570180000046</v>
-      </c>
-      <c r="G92" t="n">
-        <v>30</v>
       </c>
       <c r="H92" t="n">
         <v>30</v>
       </c>
       <c r="I92" t="n">
+        <v>30</v>
+      </c>
+      <c r="J92" t="n">
         <v>197</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>262.8</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>2024</v>
       </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4418,36 +4878,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>Houay kapher Down</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>Under construction and will be completed in 2024</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>15.34938899999989</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>106.1603289999994</v>
-      </c>
-      <c r="G93" t="n">
-        <v>5</v>
       </c>
       <c r="H93" t="n">
         <v>5</v>
       </c>
       <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
         <v>22.5</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>43.8</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>2024</v>
       </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4460,36 +4925,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>Nam Ngum 3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
         <v>19.07813399999794</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>102.8830109999985</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>480</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>2345</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>0</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>2025</v>
       </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4502,36 +4972,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Nam Ngaow</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>20.66082399998749</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>100.7177609999302</v>
-      </c>
-      <c r="G95" t="n">
-        <v>15</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
       </c>
       <c r="I95" t="n">
+        <v>15</v>
+      </c>
+      <c r="J95" t="n">
         <v>57.84</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>131.4</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>2025</v>
       </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4544,36 +5019,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>Nam Hao</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>20.53529999999803</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>104.3826099999997</v>
-      </c>
-      <c r="G96" t="n">
-        <v>15</v>
       </c>
       <c r="H96" t="n">
         <v>15</v>
       </c>
       <c r="I96" t="n">
+        <v>15</v>
+      </c>
+      <c r="J96" t="n">
         <v>65.7</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>131.4</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>2025</v>
       </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4586,36 +5066,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>Nam Dick 1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>19.88513700000401</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>104.678770999998</v>
-      </c>
-      <c r="G97" t="n">
-        <v>15</v>
       </c>
       <c r="H97" t="n">
         <v>15</v>
       </c>
       <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
         <v>78.5</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>131.4</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>2025</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4628,36 +5113,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>Nam Xam 1 A (sam)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>19.87999200000317</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>104.7749050000007</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>50</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>174.9</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>2025</v>
       </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4670,36 +5160,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Nam Xam 3(sam)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>20.15442809999983</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>104.5162663999991</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>156</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>626</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>0</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>2025</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4712,36 +5207,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>Xekong (Downstream) A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>14.59908600000417</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>106.5531940000043</v>
-      </c>
-      <c r="G100" t="n">
-        <v>86</v>
       </c>
       <c r="H100" t="n">
         <v>86</v>
       </c>
       <c r="I100" t="n">
+        <v>86</v>
+      </c>
+      <c r="J100" t="n">
         <v>380.4</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>665.76</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>2025</v>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4754,36 +5254,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>Nam Mo 2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
         <v>19.08773800000084</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>104.0704120000027</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>120</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>484</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>2025</v>
       </c>
-      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4796,36 +5301,41 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>Houay Poungloc</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>20.70433719996684</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>100.2331065998539</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>5</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>19.27</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>0</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>2025</v>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4838,36 +5348,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>Nam Samoi</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>19.2896010000041</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>102.3704649999971</v>
-      </c>
-      <c r="G103" t="n">
-        <v>5</v>
       </c>
       <c r="H103" t="n">
         <v>5</v>
       </c>
       <c r="I103" t="n">
+        <v>5</v>
+      </c>
+      <c r="J103" t="n">
         <v>10.9</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>43.8</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>2025</v>
       </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4880,36 +5395,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>Nam Tai</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>Under construction and expected to be completed after 2024</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
         <v>18.99897999999719</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>103.6545659999974</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>5</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>19.2</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>0</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>2025</v>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4922,36 +5442,41 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>Nam Bi 1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>Expected to be completed before 2027</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>15.24284500000033</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>107.5088119999981</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>52</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>210.7</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>0</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>2026</v>
       </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4964,36 +5489,41 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>Nam Bi 2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>Expected to be completed before 2027</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
         <v>15.21480099999829</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>107.5385340000004</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>71</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>292</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>0</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>2026</v>
       </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5006,36 +5536,41 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>Nam Bi 3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>Expected to be completed before 2027</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
         <v>15.20252699999973</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>107.5095450000023</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>12</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>51</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>0</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>2026</v>
       </c>
-      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5048,36 +5583,41 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>Nam Phoun</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>Expected to be completed before 2027</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
         <v>18.47541799999563</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>101.4353599999975</v>
-      </c>
-      <c r="G108" t="n">
-        <v>45</v>
       </c>
       <c r="H108" t="n">
         <v>45</v>
       </c>
       <c r="I108" t="n">
+        <v>45</v>
+      </c>
+      <c r="J108" t="n">
         <v>245</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>394.2</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>2026</v>
       </c>
-      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5090,36 +5630,41 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>Nam Mo 1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>Expected to be completed before 2027</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
         <v>19.21488399999625</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>103.8535780000042</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>60</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>223</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>0</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>2026</v>
       </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5132,36 +5677,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>Nam Mone</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2027</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>18.91619199999776</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>102.5223030000016</v>
-      </c>
-      <c r="G110" t="n">
-        <v>10</v>
       </c>
       <c r="H110" t="n">
         <v>10</v>
       </c>
       <c r="I110" t="n">
+        <v>10</v>
+      </c>
+      <c r="J110" t="n">
         <v>43.8</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>2027</v>
       </c>
-      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5174,36 +5724,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>Tadsakhoy</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2027</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
         <v>16.73097500000413</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>106.2418459999989</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>31.2</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>115.2</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>0</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>2027</v>
       </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5216,36 +5771,41 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>Xekaman 4</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2027</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
         <v>15.34727200000106</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>107.5403919999983</v>
-      </c>
-      <c r="G112" t="n">
-        <v>70</v>
       </c>
       <c r="H112" t="n">
         <v>70</v>
       </c>
       <c r="I112" t="n">
+        <v>70</v>
+      </c>
+      <c r="J112" t="n">
         <v>283.7</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>613.1999999999999</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>2027</v>
       </c>
-      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5258,36 +5818,41 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>Houay Palaiy</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2027</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
         <v>15.30381400000405</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>106.0016049999975</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>26</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>97</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>0</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>2027</v>
       </c>
-      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5300,32 +5865,37 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>Xekong (Downstream) B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>Expected to be completed before 2030</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
         <v>14.85158999999674</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>106.8492230000031</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>50</v>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
         <v>206.3</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
         <v>2028</v>
       </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5338,36 +5908,41 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>Xekong 4A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
         <v>15.51272299999637</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>106.7873019999964</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>175</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>15</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>781.2</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>131.4</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>2030</v>
       </c>
-      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5380,36 +5955,41 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>Xekong 4B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>15.79548399999927</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>106.7574729999976</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>165</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>15</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>749.5</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>131.4</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>2030</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5422,36 +6002,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>Luang Prabang</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>20.081774</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>102.1765039999932</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>1460</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>60</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>6622</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>525.6</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>2030</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5464,36 +6049,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>Pak Beng</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>19.85033999999289</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>101.0230129999719</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>912</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>114</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>4846</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>998.64</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>2032</v>
       </c>
-      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5506,36 +6096,41 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>Pak Lai  (Nam khong)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>18.32469500000072</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>101.5262599999961</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>770</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>7</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>4128</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>61.32</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>2032</v>
       </c>
-      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5548,34 +6143,39 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>Xekatam</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
         <v>15.13613800000303</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>106.5932690000035</v>
-      </c>
-      <c r="G120" t="n">
-        <v>81</v>
       </c>
       <c r="H120" t="n">
         <v>81</v>
       </c>
       <c r="I120" t="n">
+        <v>81</v>
+      </c>
+      <c r="J120" t="n">
         <v>299</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>709.5599999999999</v>
       </c>
-      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5588,34 +6188,39 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>Nam Xum 4</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
         <v>20.30580700000308</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>104.1719480000036</v>
-      </c>
-      <c r="G121" t="n">
-        <v>150</v>
       </c>
       <c r="H121" t="n">
         <v>150</v>
       </c>
       <c r="I121" t="n">
+        <v>150</v>
+      </c>
+      <c r="J121" t="n">
         <v>343</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>1314</v>
       </c>
-      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5628,34 +6233,39 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>Xekong 5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
         <v>16.00054700000163</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>106.9613550000045</v>
-      </c>
-      <c r="G122" t="n">
-        <v>330</v>
       </c>
       <c r="H122" t="n">
         <v>330</v>
       </c>
       <c r="I122" t="n">
+        <v>330</v>
+      </c>
+      <c r="J122" t="n">
         <v>1502</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>2890.8</v>
       </c>
-      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5668,34 +6278,39 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>Sanakham</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>Expected to be completed after 2030</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Run - Off</t>
         </is>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>17.81552599999833</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>101.538459999998</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>660</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>10</v>
       </c>
-      <c r="I123" t="n">
+      <c r="J123" t="n">
         <v>3696</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5708,34 +6323,39 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>Nam Bak 1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>Signed MOU, under the FS stage</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Reservoir</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Reservoir</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
         <v>18.76043100000049</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>102.9308080000034</v>
-      </c>
-      <c r="G124" t="n">
-        <v>160</v>
       </c>
       <c r="H124" t="n">
         <v>160</v>
       </c>
       <c r="I124" t="n">
+        <v>160</v>
+      </c>
+      <c r="J124" t="n">
         <v>744</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>1401.6</v>
       </c>
-      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
